--- a/汕大/数学.xlsx
+++ b/汕大/数学.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaa\汕头大ip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Typora\汕大\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B03534-C736-471A-ACBE-A67405B522CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="简答题" sheetId="1" r:id="rId1"/>
-    <sheet name="简单题" sheetId="2" r:id="rId2"/>
+    <sheet name="选择1" sheetId="1" r:id="rId1"/>
+    <sheet name="简单题1" sheetId="2" r:id="rId2"/>
+    <sheet name="选择2" sheetId="3" r:id="rId3"/>
+    <sheet name="简答2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -829,6 +830,548 @@
         <a:xfrm>
           <a:off x="8229600" y="4343400"/>
           <a:ext cx="9114286" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409095</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3838095" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504419</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="0"/>
+          <a:ext cx="3247619" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94981</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="0"/>
+          <a:ext cx="2152381" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>389533</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="0"/>
+          <a:ext cx="7933333" cy="4457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>332990</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17830800" y="0"/>
+          <a:ext cx="3076190" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66168</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>151996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20697825" y="0"/>
+          <a:ext cx="4057143" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>37838</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="2095238" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46762</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3257550"/>
+          <a:ext cx="6904762" cy="4466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>313343</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="4524375"/>
+          <a:ext cx="7857143" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17145000" y="3257550"/>
+          <a:ext cx="5885714" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418448</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7781925"/>
+          <a:ext cx="5219048" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293867</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11266667" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>255728</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="0"/>
+          <a:ext cx="11571428" cy="5857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208581</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>151883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="7752381" cy="4133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1118,10 +1661,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A35BAA-C158-468B-AAEF-21000C91D817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -1131,4 +1674,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>